--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2397801.582035732</v>
+        <v>2366608.700554672</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>810137.1853152069</v>
+        <v>770905.2620108158</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6165603.330802538</v>
+        <v>6165603.330802535</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>135.7289924441008</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>381.7313933596245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>213.3823372343259</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -806,7 +806,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>73.80331687887012</v>
       </c>
     </row>
     <row r="4">
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>22.6055084580363</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>128.590085938789</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>160.2105589579157</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>113.0362027374514</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>147.8849239690478</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -983,19 +983,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>162.111793705275</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1043,7 +1043,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>39.83193817740161</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>96.97825527756403</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>198.6770505139411</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>124.3804180042753</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,16 +1217,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>97.60114628717909</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>88.93351440885172</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1268,7 +1268,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1280,7 +1280,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>40.63244338022742</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>290.9036891257932</v>
+        <v>188.6229230331337</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>389.6064368699203</v>
@@ -1469,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
-        <v>125.8532215944585</v>
+        <v>179.0329422106659</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>146.5285141176774</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
         <v>378.1144210805207</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>139.8185186966249</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
         <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S15" t="n">
         <v>147.4755605575067</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.97372116717812</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>109.6085360990542</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>198.2507523536053</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>118.7326121342951</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T17" t="n">
         <v>220.4433659829895</v>
       </c>
       <c r="U17" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S18" t="n">
         <v>147.4755605575067</v>
@@ -2016,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.34362796447565</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>135.2034643539306</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>88.25110590539249</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>268.7133254531775</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>325.5814052293737</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>280.8129628349205</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S21" t="n">
         <v>147.4755605575067</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>115.2524641459188</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>105.0750817577658</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>344.3893284836193</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>154.0148806368479</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H23" t="n">
         <v>317.7406176577446</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -2383,10 +2383,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>43.11013298700512</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>220.7868096975384</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
@@ -2563,13 +2563,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>185.6646742300173</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H26" t="n">
         <v>317.7406176577446</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>170.9890673824398</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>31.22947103896253</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>228.6477529452049</v>
       </c>
       <c r="U28" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>113.4106508168785</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>263.4093953227706</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7183113211941</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
         <v>378.2098390737216</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>53.64689479294786</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -2967,7 +2967,7 @@
         <v>166.7157954483816</v>
       </c>
       <c r="H31" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>127.2809062519456</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>34.35836537212204</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
@@ -3043,13 +3043,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H32" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>49.52840265626408</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>263.5048133159714</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>264.4542345276648</v>
+        <v>230.6892120505836</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>328.0574783995691</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.7953871538391</v>
       </c>
       <c r="H35" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>252.2446781610247</v>
       </c>
       <c r="V35" t="n">
-        <v>40.34142985246432</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
@@ -3334,7 +3334,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>127.2809062519456</v>
       </c>
       <c r="J37" t="n">
-        <v>23.0634383904742</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>228.6477529452049</v>
+        <v>117.4169032832735</v>
       </c>
       <c r="U37" t="n">
-        <v>223.0962977181834</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>52.86437919053639</v>
       </c>
       <c r="D38" t="n">
         <v>369.0957251250487</v>
@@ -3517,13 +3517,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>252.2446781610247</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>114.741627900685</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.235171730868866</v>
+        <v>53.86242191912121</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -3745,22 +3745,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>323.9003811394704</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>43.51220265507816</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.0919149789806</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>358.909580840975</v>
@@ -3839,7 +3839,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I42" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S42" t="n">
         <v>139.8667397074436</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>44.03414133861279</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>246.9491178326708</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>347.9986561493799</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
@@ -3994,7 +3994,7 @@
         <v>410.7953871538391</v>
       </c>
       <c r="H44" t="n">
-        <v>218.904455605268</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
@@ -4045,7 +4045,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>47.12646560889377</v>
+        <v>157.3067794494093</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.19862525603281</v>
+        <v>1382.203390477396</v>
       </c>
       <c r="C2" t="n">
-        <v>64.19862525603281</v>
+        <v>1382.203390477396</v>
       </c>
       <c r="D2" t="n">
-        <v>64.19862525603281</v>
+        <v>1009.37942570462</v>
       </c>
       <c r="E2" t="n">
-        <v>64.19862525603281</v>
+        <v>1009.37942570462</v>
       </c>
       <c r="F2" t="n">
-        <v>54.08783860660719</v>
+        <v>595.2282350147898</v>
       </c>
       <c r="G2" t="n">
-        <v>42.02425610119923</v>
+        <v>179.1242484689778</v>
       </c>
       <c r="H2" t="n">
-        <v>42.02425610119923</v>
+        <v>179.1242484689778</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
@@ -4354,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T2" t="n">
-        <v>1786.215572286826</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U2" t="n">
-        <v>1531.33023600082</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V2" t="n">
-        <v>1194.350961896761</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W2" t="n">
-        <v>831.8160317543623</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="X2" t="n">
-        <v>449.7858912758556</v>
+        <v>1382.203390477396</v>
       </c>
       <c r="Y2" t="n">
-        <v>64.19862525603281</v>
+        <v>1382.203390477396</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>753.0168738400023</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C3" t="n">
-        <v>591.313201080957</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D3" t="n">
-        <v>452.4745640711691</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E3" t="n">
-        <v>305.4465541280403</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F3" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G3" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H3" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
@@ -4412,49 +4412,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1203796867518</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>554.9422248568675</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>1039.975578367094</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N3" t="n">
-        <v>1551.241224490216</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O3" t="n">
-        <v>1943.441175274367</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P3" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S3" t="n">
-        <v>1948.413318072701</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T3" t="n">
-        <v>1759.728214238687</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U3" t="n">
-        <v>1759.728214238687</v>
+        <v>1822.933743753217</v>
       </c>
       <c r="V3" t="n">
-        <v>1544.19049986058</v>
+        <v>1594.538121201551</v>
       </c>
       <c r="W3" t="n">
-        <v>1302.87463109389</v>
+        <v>1353.222252434861</v>
       </c>
       <c r="X3" t="n">
-        <v>1104.957642971684</v>
+        <v>1155.305264312656</v>
       </c>
       <c r="Y3" t="n">
-        <v>912.4363166212631</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405.6571843050742</v>
+        <v>64.85810302850862</v>
       </c>
       <c r="C4" t="n">
-        <v>405.6571843050742</v>
+        <v>64.85810302850862</v>
       </c>
       <c r="D4" t="n">
-        <v>405.6571843050742</v>
+        <v>64.85810302850862</v>
       </c>
       <c r="E4" t="n">
-        <v>405.6571843050742</v>
+        <v>64.85810302850862</v>
       </c>
       <c r="F4" t="n">
-        <v>405.6571843050742</v>
+        <v>64.85810302850862</v>
       </c>
       <c r="G4" t="n">
-        <v>405.6571843050742</v>
+        <v>64.85810302850862</v>
       </c>
       <c r="H4" t="n">
-        <v>246.284539084348</v>
+        <v>64.85810302850862</v>
       </c>
       <c r="I4" t="n">
-        <v>102.0814946870265</v>
+        <v>64.85810302850862</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4509,31 +4509,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>405.6571843050742</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>405.6571843050742</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>405.6571843050742</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>405.6571843050742</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V4" t="n">
-        <v>405.6571843050742</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W4" t="n">
-        <v>405.6571843050742</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X4" t="n">
-        <v>405.6571843050742</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y4" t="n">
-        <v>405.6571843050742</v>
+        <v>64.85810302850862</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1417.775706648727</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="C5" t="n">
-        <v>1035.841947981534</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="D5" t="n">
-        <v>1035.841947981534</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="E5" t="n">
-        <v>641.0562280876408</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="F5" t="n">
-        <v>630.9454414382152</v>
+        <v>226.9050373978112</v>
       </c>
       <c r="G5" t="n">
         <v>214.8414548924032</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.983829690315</v>
+        <v>1661.51669575393</v>
       </c>
       <c r="U5" t="n">
-        <v>1913.983829690315</v>
+        <v>1406.631359467925</v>
       </c>
       <c r="V5" t="n">
-        <v>1799.805847127233</v>
+        <v>1406.631359467925</v>
       </c>
       <c r="W5" t="n">
-        <v>1799.805847127233</v>
+        <v>1406.631359467925</v>
       </c>
       <c r="X5" t="n">
-        <v>1417.775706648727</v>
+        <v>1024.601218989418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1417.775706648727</v>
+        <v>631.0593635652559</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639.6152086099888</v>
+        <v>724.2262313165888</v>
       </c>
       <c r="C6" t="n">
-        <v>477.9115358509436</v>
+        <v>562.5225585575436</v>
       </c>
       <c r="D6" t="n">
-        <v>339.0728988411556</v>
+        <v>423.6839215477556</v>
       </c>
       <c r="E6" t="n">
-        <v>339.0728988411556</v>
+        <v>276.6559116046268</v>
       </c>
       <c r="F6" t="n">
-        <v>339.0728988411556</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="G6" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
@@ -4655,13 +4655,13 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>1182.624153874836</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N6" t="n">
-        <v>1249.145305214519</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O6" t="n">
-        <v>1641.34525599867</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P6" t="n">
         <v>1943.441175274367</v>
@@ -4670,28 +4670,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T6" t="n">
-        <v>1877.679249583922</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U6" t="n">
-        <v>1659.184457182232</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.788834630566</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W6" t="n">
-        <v>1189.472965863876</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X6" t="n">
-        <v>991.555977741671</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y6" t="n">
-        <v>799.0346513912498</v>
+        <v>873.6049423964351</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.02425610119923</v>
+        <v>254.0905089257077</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>254.0905089257077</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>254.0905089257077</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="F7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="H7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4746,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>495.3118790135463</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W7" t="n">
-        <v>495.3118790135463</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X7" t="n">
-        <v>264.0594149089221</v>
+        <v>476.1256677334306</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.02425610119923</v>
+        <v>254.0905089257077</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.02474919033</v>
+        <v>1423.680642144427</v>
       </c>
       <c r="C8" t="n">
-        <v>863.02474919033</v>
+        <v>1041.746883477235</v>
       </c>
       <c r="D8" t="n">
-        <v>863.02474919033</v>
+        <v>668.9229187044582</v>
       </c>
       <c r="E8" t="n">
         <v>468.2390292964369</v>
       </c>
       <c r="F8" t="n">
-        <v>458.1282426470112</v>
+        <v>54.0878386066072</v>
       </c>
       <c r="G8" t="n">
         <v>42.02425610119924</v>
@@ -4828,28 +4828,28 @@
         <v>2101.212805059962</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059962</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1975.576019197057</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.576019197057</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.576019197057</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="V8" t="n">
-        <v>1638.596745092999</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="W8" t="n">
-        <v>1638.596745092999</v>
+        <v>1423.680642144427</v>
       </c>
       <c r="X8" t="n">
-        <v>1256.566604614492</v>
+        <v>1423.680642144427</v>
       </c>
       <c r="Y8" t="n">
-        <v>863.02474919033</v>
+        <v>1423.680642144427</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.8799043596994</v>
+        <v>872.8960231118106</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006541</v>
+        <v>711.1923503527653</v>
       </c>
       <c r="D9" t="n">
-        <v>300.1762316006541</v>
+        <v>572.3537133429774</v>
       </c>
       <c r="E9" t="n">
-        <v>300.1762316006541</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>300.1762316006541</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4883,25 +4883,25 @@
         <v>42.02425610119924</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119924</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119924</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>407.8461012713149</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>892.8794547815413</v>
+        <v>1130.079609875548</v>
       </c>
       <c r="N9" t="n">
-        <v>1404.145100904663</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O9" t="n">
-        <v>1796.345051688814</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2098.440970964512</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059962</v>
@@ -4916,19 +4916,19 @@
         <v>1699.943945333633</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1699.943945333633</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380277</v>
+        <v>1471.548322781967</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1230.232454015277</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913815</v>
+        <v>1032.315465893071</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409603</v>
+        <v>1032.315465893071</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119924</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119924</v>
+        <v>404.4675318088119</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119924</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119924</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119924</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119924</v>
@@ -4995,19 +4995,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>286.8932618362315</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>42.02425610119924</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119924</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119924</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119924</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>673.5661339935853</v>
+        <v>1466.037210521788</v>
       </c>
       <c r="C11" t="n">
-        <v>379.7240237655113</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D11" t="n">
-        <v>379.7240237655113</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E11" t="n">
-        <v>379.7240237655113</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F11" t="n">
-        <v>379.7240237655113</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J11" t="n">
         <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
@@ -5062,31 +5062,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R11" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="S11" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="T11" t="n">
-        <v>2542.695873660731</v>
+        <v>2253.622605463969</v>
       </c>
       <c r="U11" t="n">
-        <v>2542.695873660731</v>
+        <v>2253.622605463969</v>
       </c>
       <c r="V11" t="n">
-        <v>2205.716599556672</v>
+        <v>2253.622605463969</v>
       </c>
       <c r="W11" t="n">
-        <v>1843.181669414273</v>
+        <v>2253.622605463969</v>
       </c>
       <c r="X11" t="n">
-        <v>1461.151528935766</v>
+        <v>2253.622605463969</v>
       </c>
       <c r="Y11" t="n">
-        <v>1067.609673511604</v>
+        <v>1860.080750039807</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I12" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J12" t="n">
-        <v>50.85391747321462</v>
+        <v>111.1080640063207</v>
       </c>
       <c r="K12" t="n">
-        <v>313.014426141483</v>
+        <v>373.2685726745891</v>
       </c>
       <c r="L12" t="n">
-        <v>722.7650590219088</v>
+        <v>783.0192055550149</v>
       </c>
       <c r="M12" t="n">
-        <v>1259.061235803009</v>
+        <v>1319.315382336115</v>
       </c>
       <c r="N12" t="n">
-        <v>1822.946479591694</v>
+        <v>1830.581028459238</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.966047520444</v>
+        <v>2270.917631034545</v>
       </c>
       <c r="P12" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.69587366073</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="C13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K13" t="n">
         <v>104.1644935890949</v>
@@ -5229,22 +5229,22 @@
         <v>724.8700896544216</v>
       </c>
       <c r="T13" t="n">
-        <v>724.8700896544216</v>
+        <v>492.4305776831415</v>
       </c>
       <c r="U13" t="n">
-        <v>597.7456233973928</v>
+        <v>311.589221914792</v>
       </c>
       <c r="V13" t="n">
-        <v>337.0103189558155</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="W13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="X13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>919.6010733927383</v>
+        <v>1318.606786779869</v>
       </c>
       <c r="C14" t="n">
-        <v>537.6673147255457</v>
+        <v>936.6730281126759</v>
       </c>
       <c r="D14" t="n">
-        <v>537.6673147255457</v>
+        <v>936.6730281126759</v>
       </c>
       <c r="E14" t="n">
-        <v>537.6673147255457</v>
+        <v>795.442201146388</v>
       </c>
       <c r="F14" t="n">
-        <v>537.6673147255457</v>
+        <v>795.442201146388</v>
       </c>
       <c r="G14" t="n">
-        <v>537.6673147255457</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H14" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J14" t="n">
         <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L14" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
@@ -5299,31 +5299,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R14" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="S14" t="n">
-        <v>2542.695873660731</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T14" t="n">
-        <v>2542.695873660731</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U14" t="n">
-        <v>2542.695873660731</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="V14" t="n">
-        <v>2205.716599556672</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="W14" t="n">
-        <v>1843.181669414273</v>
+        <v>1712.650326297888</v>
       </c>
       <c r="X14" t="n">
-        <v>1461.151528935766</v>
+        <v>1712.650326297888</v>
       </c>
       <c r="Y14" t="n">
-        <v>1067.609673511604</v>
+        <v>1712.650326297888</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D15" t="n">
         <v>620.3170860732707</v>
@@ -5345,7 +5345,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G15" t="n">
         <v>210.0732042050868</v>
@@ -5354,28 +5354,28 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I15" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J15" t="n">
-        <v>50.85391747321462</v>
+        <v>111.1080640063207</v>
       </c>
       <c r="K15" t="n">
-        <v>68.10001809715425</v>
+        <v>251.6973914949266</v>
       </c>
       <c r="L15" t="n">
-        <v>477.85065097758</v>
+        <v>661.4480243753524</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.14682775868</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N15" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P15" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q15" t="n">
         <v>2542.695873660731</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>237.6744007828319</v>
+        <v>231.6952732415639</v>
       </c>
       <c r="C16" t="n">
-        <v>237.6744007828319</v>
+        <v>219.6006053959295</v>
       </c>
       <c r="D16" t="n">
-        <v>237.6744007828319</v>
+        <v>219.6006053959295</v>
       </c>
       <c r="E16" t="n">
-        <v>237.6744007828319</v>
+        <v>219.6006053959295</v>
       </c>
       <c r="F16" t="n">
-        <v>237.6744007828319</v>
+        <v>219.6006053959295</v>
       </c>
       <c r="G16" t="n">
-        <v>237.6744007828319</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H16" t="n">
-        <v>237.6744007828319</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J16" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K16" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L16" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M16" t="n">
         <v>374.5706761520456</v>
       </c>
       <c r="N16" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O16" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P16" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q16" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R16" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S16" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="T16" t="n">
-        <v>237.6744007828319</v>
+        <v>492.4305776831413</v>
       </c>
       <c r="U16" t="n">
-        <v>237.6744007828319</v>
+        <v>492.4305776831413</v>
       </c>
       <c r="V16" t="n">
-        <v>237.6744007828319</v>
+        <v>231.6952732415639</v>
       </c>
       <c r="W16" t="n">
-        <v>237.6744007828319</v>
+        <v>231.6952732415639</v>
       </c>
       <c r="X16" t="n">
-        <v>237.6744007828319</v>
+        <v>231.6952732415639</v>
       </c>
       <c r="Y16" t="n">
-        <v>237.6744007828319</v>
+        <v>231.6952732415639</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1188.660934349234</v>
+        <v>1060.044113262599</v>
       </c>
       <c r="C17" t="n">
-        <v>1188.660934349234</v>
+        <v>859.7908280569375</v>
       </c>
       <c r="D17" t="n">
-        <v>1188.660934349234</v>
+        <v>859.7908280569375</v>
       </c>
       <c r="E17" t="n">
-        <v>793.8752144553409</v>
+        <v>465.0051081630443</v>
       </c>
       <c r="F17" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G17" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J17" t="n">
         <v>154.9459054532635</v>
       </c>
       <c r="K17" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L17" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M17" t="n">
         <v>1310.379159876956</v>
@@ -5536,31 +5536,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R17" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S17" t="n">
-        <v>2422.763942211948</v>
+        <v>2364.258524637048</v>
       </c>
       <c r="T17" t="n">
-        <v>2200.093875562463</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="U17" t="n">
-        <v>1945.239404009652</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="V17" t="n">
-        <v>1945.239404009652</v>
+        <v>1804.609183883505</v>
       </c>
       <c r="W17" t="n">
-        <v>1582.704473867253</v>
+        <v>1442.074253741106</v>
       </c>
       <c r="X17" t="n">
-        <v>1582.704473867253</v>
+        <v>1060.044113262599</v>
       </c>
       <c r="Y17" t="n">
-        <v>1582.704473867253</v>
+        <v>1060.044113262599</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C18" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D18" t="n">
         <v>620.3170860732707</v>
@@ -5582,7 +5582,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F18" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G18" t="n">
         <v>210.0732042050868</v>
@@ -5591,28 +5591,28 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I18" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J18" t="n">
-        <v>50.85391747321462</v>
+        <v>111.1080640063207</v>
       </c>
       <c r="K18" t="n">
-        <v>280.3444700334033</v>
+        <v>373.2685726745891</v>
       </c>
       <c r="L18" t="n">
-        <v>646.1663152035189</v>
+        <v>783.0192055550149</v>
       </c>
       <c r="M18" t="n">
-        <v>1131.199668713745</v>
+        <v>1319.315382336115</v>
       </c>
       <c r="N18" t="n">
-        <v>1695.08491250243</v>
+        <v>1883.2006261248</v>
       </c>
       <c r="O18" t="n">
-        <v>2087.284863286581</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P18" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q18" t="n">
         <v>2542.69587366073</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.2550668914769</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="C19" t="n">
-        <v>564.2550668914769</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D19" t="n">
-        <v>564.2550668914769</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E19" t="n">
-        <v>564.2550668914769</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F19" t="n">
-        <v>564.2550668914769</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G19" t="n">
-        <v>395.508378968762</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H19" t="n">
-        <v>237.6744007828319</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I19" t="n">
-        <v>98.6757639019779</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J19" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K19" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L19" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M19" t="n">
         <v>374.5706761520456</v>
       </c>
       <c r="N19" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O19" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P19" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q19" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R19" t="n">
-        <v>564.2550668914769</v>
+        <v>583.129747076674</v>
       </c>
       <c r="S19" t="n">
-        <v>564.2550668914769</v>
+        <v>372.4359606620629</v>
       </c>
       <c r="T19" t="n">
-        <v>564.2550668914769</v>
+        <v>139.9964486907828</v>
       </c>
       <c r="U19" t="n">
-        <v>564.2550668914769</v>
+        <v>139.9964486907828</v>
       </c>
       <c r="V19" t="n">
-        <v>564.2550668914769</v>
+        <v>139.9964486907828</v>
       </c>
       <c r="W19" t="n">
-        <v>564.2550668914769</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="X19" t="n">
-        <v>564.2550668914769</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.2550668914769</v>
+        <v>50.85391747321461</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1134.48174720548</v>
+        <v>1181.918880966178</v>
       </c>
       <c r="C20" t="n">
-        <v>752.5479885382878</v>
+        <v>1181.918880966178</v>
       </c>
       <c r="D20" t="n">
-        <v>379.7240237655113</v>
+        <v>809.0949161934018</v>
       </c>
       <c r="E20" t="n">
-        <v>379.7240237655113</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="F20" t="n">
-        <v>379.7240237655113</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="G20" t="n">
-        <v>379.7240237655113</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H20" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L20" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N20" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O20" t="n">
         <v>2124.896977382889</v>
@@ -5773,31 +5773,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R20" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S20" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T20" t="n">
-        <v>2542.695873660731</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U20" t="n">
-        <v>2542.695873660731</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="V20" t="n">
-        <v>2205.716599556672</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="W20" t="n">
-        <v>2205.716599556672</v>
+        <v>1957.490876868847</v>
       </c>
       <c r="X20" t="n">
-        <v>1922.067142147661</v>
+        <v>1575.46073639034</v>
       </c>
       <c r="Y20" t="n">
-        <v>1528.525286723499</v>
+        <v>1181.918880966178</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C21" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D21" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E21" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F21" t="n">
-        <v>338.5952780800169</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G21" t="n">
-        <v>210.0732042050874</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H21" t="n">
-        <v>112.1289883137705</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I21" t="n">
-        <v>50.85391747321523</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J21" t="n">
-        <v>130.2226992162555</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K21" t="n">
-        <v>359.7132517764442</v>
+        <v>68.10001809715465</v>
       </c>
       <c r="L21" t="n">
-        <v>769.4638846568699</v>
+        <v>477.8506509775804</v>
       </c>
       <c r="M21" t="n">
-        <v>1254.497238167096</v>
+        <v>1014.146827758681</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.762884290219</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O21" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P21" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q21" t="n">
         <v>2542.695873660731</v>
@@ -5858,19 +5858,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S21" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T21" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U21" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V21" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W21" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X21" t="n">
         <v>1272.800164973786</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>319.2795621623188</v>
+        <v>203.9258106454519</v>
       </c>
       <c r="C22" t="n">
-        <v>319.2795621623188</v>
+        <v>203.9258106454519</v>
       </c>
       <c r="D22" t="n">
-        <v>202.8629317118958</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E22" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F22" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G22" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H22" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I22" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J22" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K22" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L22" t="n">
-        <v>229.9889654324849</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M22" t="n">
         <v>374.5706761520456</v>
       </c>
       <c r="N22" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O22" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="T22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="U22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="V22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="W22" t="n">
-        <v>724.8700896544216</v>
+        <v>618.733643434456</v>
       </c>
       <c r="X22" t="n">
-        <v>724.8700896544216</v>
+        <v>387.4811793298317</v>
       </c>
       <c r="Y22" t="n">
-        <v>502.8349308466986</v>
+        <v>387.4811793298317</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1299.831114135908</v>
+        <v>2334.076523628813</v>
       </c>
       <c r="C23" t="n">
-        <v>917.8973554687154</v>
+        <v>1986.2085150595</v>
       </c>
       <c r="D23" t="n">
-        <v>545.073390695939</v>
+        <v>1613.384550286724</v>
       </c>
       <c r="E23" t="n">
-        <v>545.073390695939</v>
+        <v>1218.59883039283</v>
       </c>
       <c r="F23" t="n">
-        <v>389.5028041940724</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="G23" t="n">
         <v>389.5028041940724</v>
@@ -5989,10 +5989,10 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J23" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805679</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950433</v>
       </c>
       <c r="L23" t="n">
         <v>1148.797379660662</v>
@@ -6013,28 +6013,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R23" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S23" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T23" t="n">
-        <v>3029.70991848809</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U23" t="n">
-        <v>2774.917314285035</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="V23" t="n">
-        <v>2437.938040180976</v>
+        <v>3090.654993289231</v>
       </c>
       <c r="W23" t="n">
-        <v>2075.403110038577</v>
+        <v>2728.120063146832</v>
       </c>
       <c r="X23" t="n">
-        <v>1693.37296956007</v>
+        <v>2728.120063146832</v>
       </c>
       <c r="Y23" t="n">
-        <v>1299.831114135908</v>
+        <v>2728.120063146832</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="K24" t="n">
-        <v>396.1990541494053</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="L24" t="n">
-        <v>894.0035074360995</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="M24" t="n">
-        <v>1301.105973964598</v>
+        <v>707.6035173126875</v>
       </c>
       <c r="N24" t="n">
-        <v>1812.37162008772</v>
+        <v>1376.963026251788</v>
       </c>
       <c r="O24" t="n">
-        <v>2204.571570871871</v>
+        <v>1913.787975369441</v>
       </c>
       <c r="P24" t="n">
-        <v>2506.667490147568</v>
+        <v>2331.958206172854</v>
       </c>
       <c r="Q24" t="n">
         <v>2506.667490147568</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>587.7284929421673</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="C25" t="n">
-        <v>587.7284929421673</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="D25" t="n">
-        <v>544.1829040664046</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E25" t="n">
-        <v>544.1829040664046</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="F25" t="n">
-        <v>391.7022490921817</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="G25" t="n">
-        <v>223.3024557099781</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H25" t="n">
         <v>68.55268534786579</v>
@@ -6180,19 +6180,19 @@
         <v>1032.019166068125</v>
       </c>
       <c r="U25" t="n">
-        <v>1032.019166068125</v>
+        <v>744.857287752676</v>
       </c>
       <c r="V25" t="n">
-        <v>771.2838616265472</v>
+        <v>521.840308260213</v>
       </c>
       <c r="W25" t="n">
-        <v>771.2838616265472</v>
+        <v>521.840308260213</v>
       </c>
       <c r="X25" t="n">
-        <v>771.2838616265472</v>
+        <v>290.5878441555887</v>
       </c>
       <c r="Y25" t="n">
-        <v>771.2838616265472</v>
+        <v>68.55268534786579</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2081.326466659514</v>
+        <v>2289.025657254364</v>
       </c>
       <c r="C26" t="n">
-        <v>1699.392707992321</v>
+        <v>1907.091898587172</v>
       </c>
       <c r="D26" t="n">
-        <v>1326.568743219545</v>
+        <v>1534.267933814395</v>
       </c>
       <c r="E26" t="n">
-        <v>931.7830233256514</v>
+        <v>1346.72785883458</v>
       </c>
       <c r="F26" t="n">
-        <v>517.6318326358218</v>
+        <v>932.5766681447501</v>
       </c>
       <c r="G26" t="n">
         <v>517.6318326358218</v>
@@ -6226,16 +6226,16 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J26" t="n">
-        <v>236.9749331805676</v>
+        <v>236.974933180568</v>
       </c>
       <c r="K26" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L26" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M26" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N26" t="n">
         <v>2322.568598257194</v>
@@ -6256,22 +6256,22 @@
         <v>3427.63426739329</v>
       </c>
       <c r="T26" t="n">
-        <v>3208.349504788259</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U26" t="n">
-        <v>2953.556900585203</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="V26" t="n">
-        <v>2616.577626481145</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="W26" t="n">
-        <v>2254.042696338746</v>
+        <v>3065.099337250891</v>
       </c>
       <c r="X26" t="n">
-        <v>2081.326466659514</v>
+        <v>2683.069196772384</v>
       </c>
       <c r="Y26" t="n">
-        <v>2081.326466659514</v>
+        <v>2683.069196772384</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J27" t="n">
-        <v>186.2361291527469</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K27" t="n">
-        <v>415.7266817129356</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="L27" t="n">
-        <v>913.5311349996298</v>
+        <v>434.3745305179814</v>
       </c>
       <c r="M27" t="n">
-        <v>913.5311349996298</v>
+        <v>1040.406664103379</v>
       </c>
       <c r="N27" t="n">
-        <v>1582.89064393873</v>
+        <v>1551.672310226501</v>
       </c>
       <c r="O27" t="n">
-        <v>2119.715593056383</v>
+        <v>2088.497259344154</v>
       </c>
       <c r="P27" t="n">
         <v>2506.667490147568</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2464.167786673031</v>
+        <v>100.0976055892421</v>
       </c>
       <c r="C28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="D28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="F28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="G28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K28" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L28" t="n">
-        <v>2733.351086222691</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M28" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N28" t="n">
-        <v>3127.634270415694</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O28" t="n">
-        <v>3298.128711166521</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P28" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q28" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R28" t="n">
-        <v>3301.491564791619</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S28" t="n">
-        <v>3096.843204142099</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T28" t="n">
-        <v>2865.885877934821</v>
+        <v>801.0618398608469</v>
       </c>
       <c r="U28" t="n">
-        <v>2578.723999619373</v>
+        <v>801.0618398608469</v>
       </c>
       <c r="V28" t="n">
-        <v>2578.723999619373</v>
+        <v>801.0618398608469</v>
       </c>
       <c r="W28" t="n">
-        <v>2578.723999619373</v>
+        <v>514.9054383782461</v>
       </c>
       <c r="X28" t="n">
-        <v>2464.167786673031</v>
+        <v>283.6529742736219</v>
       </c>
       <c r="Y28" t="n">
-        <v>2464.167786673031</v>
+        <v>283.6529742736219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2047.192154880486</v>
+        <v>1558.504527726144</v>
       </c>
       <c r="C29" t="n">
-        <v>1665.258396213294</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="D29" t="n">
         <v>1292.434431440517</v>
@@ -6463,16 +6463,16 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J29" t="n">
-        <v>236.9749331805676</v>
+        <v>236.974933180568</v>
       </c>
       <c r="K29" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L29" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M29" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N29" t="n">
         <v>2322.568598257194</v>
@@ -6493,22 +6493,22 @@
         <v>3427.63426739329</v>
       </c>
       <c r="T29" t="n">
-        <v>3216.807690301174</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U29" t="n">
-        <v>3216.807690301174</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="V29" t="n">
-        <v>3216.807690301174</v>
+        <v>3090.654993289231</v>
       </c>
       <c r="W29" t="n">
-        <v>3216.807690301174</v>
+        <v>2728.120063146832</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.777549822667</v>
+        <v>2346.089922668325</v>
       </c>
       <c r="Y29" t="n">
-        <v>2441.235694398506</v>
+        <v>1952.548067244163</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="K30" t="n">
-        <v>296.2332968296607</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="L30" t="n">
-        <v>662.0551419997763</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="M30" t="n">
-        <v>1301.105973964598</v>
+        <v>707.6035173126875</v>
       </c>
       <c r="N30" t="n">
-        <v>1812.37162008772</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O30" t="n">
-        <v>2204.571570871871</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P30" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q30" t="n">
         <v>2506.667490147568</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1032.019166068125</v>
+        <v>687.6156752142742</v>
       </c>
       <c r="C31" t="n">
-        <v>977.8303834489853</v>
+        <v>517.9997056759545</v>
       </c>
       <c r="D31" t="n">
-        <v>824.758490276748</v>
+        <v>517.9997056759545</v>
       </c>
       <c r="E31" t="n">
-        <v>672.7494760380669</v>
+        <v>517.9997056759545</v>
       </c>
       <c r="F31" t="n">
-        <v>520.2688210638439</v>
+        <v>365.5190507017316</v>
       </c>
       <c r="G31" t="n">
-        <v>351.8690276816402</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="H31" t="n">
         <v>197.1192573195279</v>
@@ -6645,28 +6645,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R31" t="n">
-        <v>1032.019166068125</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="S31" t="n">
-        <v>1032.019166068125</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="T31" t="n">
-        <v>1032.019166068125</v>
+        <v>871.171043898654</v>
       </c>
       <c r="U31" t="n">
-        <v>1032.019166068125</v>
+        <v>871.171043898654</v>
       </c>
       <c r="V31" t="n">
-        <v>1032.019166068125</v>
+        <v>871.171043898654</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.019166068125</v>
+        <v>871.171043898654</v>
       </c>
       <c r="X31" t="n">
-        <v>1032.019166068125</v>
+        <v>871.171043898654</v>
       </c>
       <c r="Y31" t="n">
-        <v>1032.019166068125</v>
+        <v>871.171043898654</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2003.226127769546</v>
+        <v>1674.36819010771</v>
       </c>
       <c r="C32" t="n">
-        <v>1621.292369102354</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="D32" t="n">
-        <v>1248.468404329577</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="E32" t="n">
-        <v>853.682684435684</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F32" t="n">
-        <v>439.5314937458543</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G32" t="n">
-        <v>439.5314937458543</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H32" t="n">
-        <v>118.5813748996477</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I32" t="n">
         <v>68.55268534786579</v>
@@ -6733,19 +6733,19 @@
         <v>3427.63426739329</v>
       </c>
       <c r="U32" t="n">
-        <v>3172.841663190234</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="V32" t="n">
-        <v>3172.841663190234</v>
+        <v>3090.654993289231</v>
       </c>
       <c r="W32" t="n">
-        <v>3172.841663190234</v>
+        <v>2728.120063146832</v>
       </c>
       <c r="X32" t="n">
-        <v>2790.811522711727</v>
+        <v>2461.953585049891</v>
       </c>
       <c r="Y32" t="n">
-        <v>2397.269667287565</v>
+        <v>2068.411729625729</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J33" t="n">
-        <v>68.55268534786579</v>
+        <v>128.8068318809719</v>
       </c>
       <c r="K33" t="n">
-        <v>68.55268534786579</v>
+        <v>128.8068318809719</v>
       </c>
       <c r="L33" t="n">
-        <v>310.616597381246</v>
+        <v>128.8068318809719</v>
       </c>
       <c r="M33" t="n">
-        <v>949.6674293460677</v>
+        <v>767.8576638457936</v>
       </c>
       <c r="N33" t="n">
-        <v>1460.93307546919</v>
+        <v>1437.217172784894</v>
       </c>
       <c r="O33" t="n">
         <v>1853.133026253341</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="C34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="D34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="F34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="G34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K34" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L34" t="n">
-        <v>2733.351086222691</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M34" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N34" t="n">
-        <v>3127.634270415694</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O34" t="n">
-        <v>3298.128711166521</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P34" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q34" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R34" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S34" t="n">
-        <v>3222.985906743769</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T34" t="n">
-        <v>2992.028580536492</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U34" t="n">
-        <v>2724.903091114608</v>
+        <v>798.999759956424</v>
       </c>
       <c r="V34" t="n">
-        <v>2464.167786673031</v>
+        <v>538.2644555148465</v>
       </c>
       <c r="W34" t="n">
-        <v>2464.167786673031</v>
+        <v>252.1080540322456</v>
       </c>
       <c r="X34" t="n">
-        <v>2464.167786673031</v>
+        <v>252.1080540322456</v>
       </c>
       <c r="Y34" t="n">
-        <v>2464.167786673031</v>
+        <v>252.1080540322456</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1613.384550286724</v>
+        <v>1366.384272738513</v>
       </c>
       <c r="C35" t="n">
-        <v>1613.384550286724</v>
+        <v>984.45051407132</v>
       </c>
       <c r="D35" t="n">
-        <v>1613.384550286724</v>
+        <v>611.6265492985435</v>
       </c>
       <c r="E35" t="n">
-        <v>1218.59883039283</v>
+        <v>611.6265492985435</v>
       </c>
       <c r="F35" t="n">
-        <v>804.4476397030008</v>
+        <v>611.6265492985435</v>
       </c>
       <c r="G35" t="n">
-        <v>389.5028041940724</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="H35" t="n">
-        <v>68.55268534786579</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="I35" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J35" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K35" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L35" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M35" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N35" t="n">
         <v>2322.568598257194</v>
       </c>
       <c r="O35" t="n">
-        <v>2818.99054420136</v>
+        <v>2818.990544201361</v>
       </c>
       <c r="P35" t="n">
         <v>3210.517730076022</v>
@@ -6964,25 +6964,25 @@
         <v>3427.63426739329</v>
       </c>
       <c r="S35" t="n">
-        <v>3266.819446276628</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T35" t="n">
-        <v>3047.534683671597</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U35" t="n">
-        <v>2792.742079468542</v>
+        <v>3172.841663190234</v>
       </c>
       <c r="V35" t="n">
-        <v>2751.993160425649</v>
+        <v>2835.862389086175</v>
       </c>
       <c r="W35" t="n">
-        <v>2389.45823028325</v>
+        <v>2473.327458943776</v>
       </c>
       <c r="X35" t="n">
-        <v>2007.428089804743</v>
+        <v>2091.29731846527</v>
       </c>
       <c r="Y35" t="n">
-        <v>2007.428089804743</v>
+        <v>1697.755463041108</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>68.55268534786579</v>
       </c>
       <c r="K36" t="n">
-        <v>68.55268534786579</v>
+        <v>396.1990541494053</v>
       </c>
       <c r="L36" t="n">
-        <v>566.35713863456</v>
+        <v>894.0035074360995</v>
       </c>
       <c r="M36" t="n">
-        <v>1205.407970599382</v>
+        <v>1458.576894906793</v>
       </c>
       <c r="N36" t="n">
-        <v>1874.767479538482</v>
+        <v>1969.842541029915</v>
       </c>
       <c r="O36" t="n">
-        <v>2204.571570871871</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="P36" t="n">
         <v>2506.667490147568</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.9209809347235</v>
+        <v>365.5190507017316</v>
       </c>
       <c r="C37" t="n">
-        <v>244.9209809347235</v>
+        <v>365.5190507017316</v>
       </c>
       <c r="D37" t="n">
-        <v>91.84908776248619</v>
+        <v>365.5190507017316</v>
       </c>
       <c r="E37" t="n">
-        <v>91.84908776248619</v>
+        <v>365.5190507017316</v>
       </c>
       <c r="F37" t="n">
-        <v>91.84908776248619</v>
+        <v>365.5190507017316</v>
       </c>
       <c r="G37" t="n">
-        <v>91.84908776248619</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="H37" t="n">
-        <v>91.84908776248619</v>
+        <v>197.1192573195279</v>
       </c>
       <c r="I37" t="n">
-        <v>91.84908776248619</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J37" t="n">
         <v>68.55268534786579</v>
@@ -7119,28 +7119,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R37" t="n">
-        <v>905.8764634664541</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S37" t="n">
-        <v>701.2281028169339</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T37" t="n">
-        <v>470.2707766096562</v>
+        <v>913.4162334587575</v>
       </c>
       <c r="U37" t="n">
-        <v>244.9209809347235</v>
+        <v>626.254355143309</v>
       </c>
       <c r="V37" t="n">
-        <v>244.9209809347235</v>
+        <v>365.5190507017316</v>
       </c>
       <c r="W37" t="n">
-        <v>244.9209809347235</v>
+        <v>365.5190507017316</v>
       </c>
       <c r="X37" t="n">
-        <v>244.9209809347235</v>
+        <v>365.5190507017316</v>
       </c>
       <c r="Y37" t="n">
-        <v>244.9209809347235</v>
+        <v>365.5190507017316</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2496.271302168442</v>
+        <v>1303.711923523089</v>
       </c>
       <c r="C38" t="n">
-        <v>2114.337543501249</v>
+        <v>1250.313560704365</v>
       </c>
       <c r="D38" t="n">
-        <v>1741.513578728473</v>
+        <v>877.4895959315886</v>
       </c>
       <c r="E38" t="n">
-        <v>1346.72785883458</v>
+        <v>482.7038760376955</v>
       </c>
       <c r="F38" t="n">
-        <v>932.5766681447501</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="G38" t="n">
-        <v>517.6318326358218</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H38" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I38" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J38" t="n">
-        <v>236.9749331805676</v>
+        <v>236.974933180568</v>
       </c>
       <c r="K38" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L38" t="n">
         <v>1148.797379660662</v>
@@ -7198,28 +7198,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R38" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S38" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T38" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U38" t="n">
-        <v>2994.202076890065</v>
+        <v>3172.841663190234</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.202076890065</v>
+        <v>2835.862389086175</v>
       </c>
       <c r="W38" t="n">
-        <v>2994.202076890065</v>
+        <v>2473.327458943776</v>
       </c>
       <c r="X38" t="n">
-        <v>2612.171936411558</v>
+        <v>2091.29731846527</v>
       </c>
       <c r="Y38" t="n">
-        <v>2496.271302168442</v>
+        <v>1697.755463041108</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J39" t="n">
-        <v>186.2361291527469</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K39" t="n">
-        <v>186.2361291527469</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="L39" t="n">
-        <v>206.7690580338892</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="M39" t="n">
-        <v>845.8198899987108</v>
+        <v>707.6035173126875</v>
       </c>
       <c r="N39" t="n">
-        <v>1515.179398937811</v>
+        <v>1376.963026251788</v>
       </c>
       <c r="O39" t="n">
         <v>1853.133026253341</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>395.1761744713976</v>
+        <v>292.5751416731766</v>
       </c>
       <c r="C40" t="n">
-        <v>225.5602049330779</v>
+        <v>122.9591721348569</v>
       </c>
       <c r="D40" t="n">
-        <v>225.5602049330779</v>
+        <v>122.9591721348569</v>
       </c>
       <c r="E40" t="n">
-        <v>225.5602049330779</v>
+        <v>122.9591721348569</v>
       </c>
       <c r="F40" t="n">
-        <v>223.3024557099781</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="G40" t="n">
-        <v>223.3024557099781</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H40" t="n">
         <v>68.55268534786579</v>
@@ -7371,13 +7371,13 @@
         <v>1032.019166068125</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.019166068125</v>
+        <v>745.8627645855238</v>
       </c>
       <c r="X40" t="n">
-        <v>800.7667019635004</v>
+        <v>514.6103004808996</v>
       </c>
       <c r="Y40" t="n">
-        <v>578.7315431557774</v>
+        <v>292.5751416731766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>905.787574617889</v>
+        <v>1676.199039225172</v>
       </c>
       <c r="C41" t="n">
-        <v>523.8538159506963</v>
+        <v>1294.265280557979</v>
       </c>
       <c r="D41" t="n">
-        <v>523.8538159506963</v>
+        <v>921.441315785203</v>
       </c>
       <c r="E41" t="n">
-        <v>196.6817137896151</v>
+        <v>526.6555958913098</v>
       </c>
       <c r="F41" t="n">
-        <v>196.6817137896151</v>
+        <v>112.5044052014801</v>
       </c>
       <c r="G41" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H41" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I41" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J41" t="n">
-        <v>236.9749331805676</v>
+        <v>236.9749331805679</v>
       </c>
       <c r="K41" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950433</v>
       </c>
       <c r="L41" t="n">
         <v>1148.797379660662</v>
@@ -7426,7 +7426,7 @@
         <v>2322.568598257194</v>
       </c>
       <c r="O41" t="n">
-        <v>2818.99054420136</v>
+        <v>2818.990544201361</v>
       </c>
       <c r="P41" t="n">
         <v>3210.517730076022</v>
@@ -7435,28 +7435,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R41" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S41" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T41" t="n">
-        <v>3029.70991848809</v>
+        <v>3208.349504788259</v>
       </c>
       <c r="U41" t="n">
-        <v>2774.917314285035</v>
+        <v>3208.349504788259</v>
       </c>
       <c r="V41" t="n">
-        <v>2437.938040180976</v>
+        <v>3208.349504788259</v>
       </c>
       <c r="W41" t="n">
-        <v>2075.403110038577</v>
+        <v>2845.81457464586</v>
       </c>
       <c r="X41" t="n">
-        <v>1693.37296956007</v>
+        <v>2463.784434167353</v>
       </c>
       <c r="Y41" t="n">
-        <v>1299.831114135908</v>
+        <v>2070.242578743191</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G42" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H42" t="n">
         <v>115.581576881063</v>
@@ -7496,19 +7496,19 @@
         <v>68.55268534786579</v>
       </c>
       <c r="L42" t="n">
-        <v>89.08561422900803</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="M42" t="n">
-        <v>728.1364461938297</v>
+        <v>707.6035173126875</v>
       </c>
       <c r="N42" t="n">
-        <v>1393.900680440907</v>
+        <v>1376.963026251788</v>
       </c>
       <c r="O42" t="n">
-        <v>1930.725629558561</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P42" t="n">
-        <v>2348.895860361974</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q42" t="n">
         <v>2506.667490147568</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.249562297104</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="C43" t="n">
-        <v>373.6335927587843</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="D43" t="n">
-        <v>220.561699586547</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E43" t="n">
         <v>68.55268534786579</v>
@@ -7602,19 +7602,19 @@
         <v>1032.019166068125</v>
       </c>
       <c r="U43" t="n">
-        <v>987.5402354230612</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V43" t="n">
-        <v>726.8049309814838</v>
+        <v>771.2838616265472</v>
       </c>
       <c r="W43" t="n">
-        <v>726.8049309814838</v>
+        <v>521.840308260213</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8049309814838</v>
+        <v>290.5878441555887</v>
       </c>
       <c r="Y43" t="n">
-        <v>726.8049309814838</v>
+        <v>68.55268534786579</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1895.483801830203</v>
+        <v>1952.046383150306</v>
       </c>
       <c r="C44" t="n">
-        <v>1513.55004316301</v>
+        <v>1570.112624483113</v>
       </c>
       <c r="D44" t="n">
-        <v>1513.55004316301</v>
+        <v>1570.112624483113</v>
       </c>
       <c r="E44" t="n">
-        <v>1118.764323269117</v>
+        <v>1218.59883039283</v>
       </c>
       <c r="F44" t="n">
-        <v>704.6131325792871</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="G44" t="n">
-        <v>289.6682970703587</v>
+        <v>389.5028041940724</v>
       </c>
       <c r="H44" t="n">
         <v>68.55268534786579</v>
@@ -7648,22 +7648,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J44" t="n">
-        <v>236.9749331805679</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K44" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L44" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M44" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N44" t="n">
         <v>2322.568598257194</v>
       </c>
       <c r="O44" t="n">
-        <v>2818.990544201361</v>
+        <v>2818.99054420136</v>
       </c>
       <c r="P44" t="n">
         <v>3210.517730076022</v>
@@ -7684,16 +7684,16 @@
         <v>3427.63426739329</v>
       </c>
       <c r="V44" t="n">
-        <v>3427.63426739329</v>
+        <v>3090.654993289231</v>
       </c>
       <c r="W44" t="n">
-        <v>3065.099337250891</v>
+        <v>2728.120063146832</v>
       </c>
       <c r="X44" t="n">
-        <v>2683.069196772384</v>
+        <v>2346.089922668325</v>
       </c>
       <c r="Y44" t="n">
-        <v>2289.527341348222</v>
+        <v>2346.089922668325</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J45" t="n">
-        <v>68.55268534786579</v>
+        <v>128.8068318809719</v>
       </c>
       <c r="K45" t="n">
-        <v>298.0432379080544</v>
+        <v>128.8068318809719</v>
       </c>
       <c r="L45" t="n">
-        <v>663.8650830781701</v>
+        <v>128.8068318809719</v>
       </c>
       <c r="M45" t="n">
-        <v>1148.898436588397</v>
+        <v>646.9485681965875</v>
       </c>
       <c r="N45" t="n">
-        <v>1667.746621754218</v>
+        <v>1316.308077135688</v>
       </c>
       <c r="O45" t="n">
-        <v>2204.571570871871</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P45" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q45" t="n">
         <v>2506.667490147568</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>697.2547972386419</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="C46" t="n">
-        <v>697.2547972386419</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="D46" t="n">
-        <v>544.1829040664046</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E46" t="n">
-        <v>544.1829040664046</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="F46" t="n">
-        <v>391.7022490921817</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="G46" t="n">
-        <v>223.3024557099781</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H46" t="n">
         <v>68.55268534786579</v>
@@ -7833,25 +7833,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S46" t="n">
-        <v>984.4166755540905</v>
+        <v>873.1234292505394</v>
       </c>
       <c r="T46" t="n">
-        <v>984.4166755540905</v>
+        <v>873.1234292505394</v>
       </c>
       <c r="U46" t="n">
-        <v>697.2547972386419</v>
+        <v>585.9615509350908</v>
       </c>
       <c r="V46" t="n">
-        <v>697.2547972386419</v>
+        <v>585.9615509350908</v>
       </c>
       <c r="W46" t="n">
-        <v>697.2547972386419</v>
+        <v>299.80514945249</v>
       </c>
       <c r="X46" t="n">
-        <v>697.2547972386419</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="Y46" t="n">
-        <v>697.2547972386419</v>
+        <v>68.55268534786579</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>199.7153379065116</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
@@ -8075,10 +8075,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8303,16 +8303,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>461.3271126651593</v>
       </c>
       <c r="N6" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8531,28 +8531,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>552.3412859060222</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.5350238645392</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8768,7 +8768,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8783,13 +8783,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>450.0846164268627</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>197.9257911033489</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9005,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>96.41651716248475</v>
+        <v>254.0055908723292</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9242,7 +9242,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9257,13 +9257,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>437.8447227481256</v>
       </c>
       <c r="P18" t="n">
-        <v>383.413435293211</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9479,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>129.4164728272122</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9500,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,16 +9716,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>45.04618048305563</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M24" t="n">
-        <v>526.6985152166889</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9737,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,16 +9953,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9974,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.35882446992306</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,13 +10190,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>45.04618048305563</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>341.9765848048434</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,13 +10427,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>45.04618048305563</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>12.84888003398906</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>223.7686698507454</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10442,7 +10442,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>389.8906154140855</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10664,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>45.04618048305563</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>12.84888003398906</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10679,13 +10679,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>448.994894402413</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.35882446992306</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10901,13 +10901,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>12.84888003398906</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10916,7 +10916,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>311.1408920273003</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11141,16 +11141,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>12.84888003398909</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>619.5134960486171</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11317,7 +11317,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.009487857876</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11375,13 +11375,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>45.04618048305564</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11396,7 +11396,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.35882446992308</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>87.21073195472752</v>
+        <v>189.491498047387</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
         <v>156.363858050434</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4557702430231</v>
+        <v>105.2760496268156</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>243.5745900051616</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>251.0193439983292</v>
       </c>
       <c r="F14" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>167.9198098429365</v>
+        <v>155.9460886757584</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
@@ -23667,16 +23667,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>156.2556384040709</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>120.5065807525131</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>284.3089918374816</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>283.2948374677749</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>179.8636687269153</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
@@ -23749,7 +23749,7 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I17" t="n">
         <v>156.363858050434</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S17" t="n">
-        <v>57.92036339915006</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -23904,16 +23904,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R19" t="n">
-        <v>5.11947479803942</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>284.3089918374816</v>
@@ -23952,7 +23952,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>195.0437315623824</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>122.1245372417767</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S20" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>97.39687623880104</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>36.28871009459608</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -24150,7 +24150,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R22" t="n">
         <v>140.32293915197</v>
@@ -24189,13 +24189,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>178.2197557100091</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>33.72509259690139</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>255.9947981460835</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>108.4310412535098</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I25" t="n">
         <v>127.2809062519456</v>
@@ -24420,19 +24420,19 @@
         <v>228.6477529452049</v>
       </c>
       <c r="U25" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>37.34114169962319</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>205.1731884649369</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>159.2066729054946</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>207.2207716912818</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>389.6064368699203</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>136.690338803974</v>
       </c>
       <c r="D28" t="n">
         <v>151.5411742405149</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5292886466995</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>114.70502575775</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>159.2066729054946</v>
       </c>
       <c r="T29" t="n">
-        <v>8.373603657786504</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U29" t="n">
         <v>252.2446781610247</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>114.2729150499886</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>202.601877043025</v>
       </c>
       <c r="T31" t="n">
-        <v>228.6477529452049</v>
+        <v>194.2893875730828</v>
       </c>
       <c r="U31" t="n">
         <v>284.290259532294</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I32" t="n">
-        <v>77.31933550106771</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>217.0919149789806</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>114.7050257577501</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25125,19 +25125,19 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U34" t="n">
-        <v>19.83602500462916</v>
+        <v>53.6010474817104</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>62.04562572326984</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I35" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>17.64651753167263</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>293.2680515105537</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -25326,16 +25326,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.2022726584912</v>
       </c>
       <c r="I37" t="n">
-        <v>127.2809062519456</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>111.2308496619314</v>
       </c>
       <c r="U37" t="n">
-        <v>61.19396181411059</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>325.2500418899843</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T38" t="n">
         <v>217.0919149789806</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.8648089692353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>148.7206766936118</v>
+        <v>97.09342650535945</v>
       </c>
       <c r="G40" t="n">
         <v>166.7157954483816</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I40" t="n">
         <v>127.2809062519456</v>
@@ -25611,7 +25611,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>66.93748155548383</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.7953871538391</v>
+        <v>367.2831844987609</v>
       </c>
       <c r="H41" t="n">
         <v>317.7406176577446</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -25809,7 +25809,7 @@
         <v>127.2809062519456</v>
       </c>
       <c r="J43" t="n">
-        <v>23.06343839047421</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>228.6477529452049</v>
       </c>
       <c r="U43" t="n">
-        <v>240.2561181936812</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>36.34571963510405</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>42.83920654557426</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>98.83616205247657</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>126.8477381573318</v>
@@ -25924,7 +25924,7 @@
         <v>252.2446781610247</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -26028,19 +26028,19 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I46" t="n">
         <v>127.2809062519456</v>
@@ -26073,7 +26073,7 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S46" t="n">
-        <v>155.4754114341312</v>
+        <v>45.29509759361562</v>
       </c>
       <c r="T46" t="n">
         <v>228.6477529452049</v>
@@ -26085,10 +26085,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>517543.1234732097</v>
+        <v>517543.1234732094</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>517543.1234732096</v>
+        <v>517543.1234732094</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>605463.2605695697</v>
+        <v>605463.2605695695</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>605463.2605695699</v>
+        <v>605463.2605695697</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>605463.26056957</v>
+        <v>605463.2605695699</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>605463.2605695699</v>
+        <v>605463.2605695697</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>605463.2605695697</v>
+        <v>605463.2605695699</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>605463.2605695697</v>
+        <v>605463.2605695699</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>556527.4438582812</v>
+        <v>556527.4438582816</v>
       </c>
       <c r="C2" t="n">
-        <v>556527.4438582817</v>
+        <v>556527.4438582816</v>
       </c>
       <c r="D2" t="n">
-        <v>556527.4438582817</v>
+        <v>556527.4438582816</v>
       </c>
       <c r="E2" t="n">
-        <v>366067.087334709</v>
+        <v>366067.0873347089</v>
       </c>
       <c r="F2" t="n">
-        <v>366067.0873347092</v>
+        <v>366067.0873347089</v>
       </c>
       <c r="G2" t="n">
         <v>366067.087334709</v>
@@ -26334,13 +26334,13 @@
         <v>366067.087334709</v>
       </c>
       <c r="I2" t="n">
-        <v>428254.5013784761</v>
+        <v>428254.501378476</v>
       </c>
       <c r="J2" t="n">
+        <v>428254.5013784757</v>
+      </c>
+      <c r="K2" t="n">
         <v>428254.501378476</v>
-      </c>
-      <c r="K2" t="n">
-        <v>428254.5013784757</v>
       </c>
       <c r="L2" t="n">
         <v>428254.5013784759</v>
@@ -26349,13 +26349,13 @@
         <v>428254.5013784759</v>
       </c>
       <c r="N2" t="n">
-        <v>428254.5013784757</v>
+        <v>428254.501378476</v>
       </c>
       <c r="O2" t="n">
-        <v>428254.5013784757</v>
+        <v>428254.501378476</v>
       </c>
       <c r="P2" t="n">
-        <v>428254.5013784756</v>
+        <v>428254.5013784758</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>109285.8666493012</v>
+        <v>109285.8666493011</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>202188.2862928656</v>
+        <v>202188.2862928658</v>
       </c>
       <c r="J3" t="n">
         <v>137442.4307917771</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27504.83665689651</v>
+        <v>27504.83665689648</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185775.7593332931</v>
+        <v>185775.7593332932</v>
       </c>
       <c r="C4" t="n">
-        <v>185775.7593332931</v>
+        <v>185775.7593332932</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>485.1228890715545</v>
+        <v>485.1228890715544</v>
       </c>
       <c r="F4" t="n">
-        <v>485.1228890715545</v>
+        <v>485.1228890715543</v>
       </c>
       <c r="G4" t="n">
-        <v>485.1228890715544</v>
+        <v>485.1228890715543</v>
       </c>
       <c r="H4" t="n">
         <v>485.1228890715544</v>
@@ -26447,7 +26447,7 @@
         <v>596.7911472600141</v>
       </c>
       <c r="L4" t="n">
-        <v>596.7911472600141</v>
+        <v>596.791147260014</v>
       </c>
       <c r="M4" t="n">
         <v>596.791147260014</v>
@@ -26478,16 +26478,16 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="F5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="G5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="H5" t="n">
-        <v>40720.20246230468</v>
+        <v>40720.20246230467</v>
       </c>
       <c r="I5" t="n">
         <v>58322.96928678589</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129144.4651705493</v>
+        <v>129144.4651705497</v>
       </c>
       <c r="C6" t="n">
-        <v>305185.6498880772</v>
+        <v>305185.649888077</v>
       </c>
       <c r="D6" t="n">
-        <v>305185.6498880772</v>
+        <v>305185.6498880771</v>
       </c>
       <c r="E6" t="n">
-        <v>215575.8953340316</v>
+        <v>209008.2968332187</v>
       </c>
       <c r="F6" t="n">
-        <v>324861.761983333</v>
+        <v>318294.1634825199</v>
       </c>
       <c r="G6" t="n">
-        <v>324861.7619833328</v>
+        <v>318294.16348252</v>
       </c>
       <c r="H6" t="n">
-        <v>324861.7619833327</v>
+        <v>318294.16348252</v>
       </c>
       <c r="I6" t="n">
-        <v>167146.4546515645</v>
+        <v>162723.2497384676</v>
       </c>
       <c r="J6" t="n">
-        <v>231892.3101526531</v>
+        <v>227469.105239556</v>
       </c>
       <c r="K6" t="n">
-        <v>369334.7409444299</v>
+        <v>364911.5360313334</v>
       </c>
       <c r="L6" t="n">
-        <v>369334.74094443</v>
+        <v>364911.5360313333</v>
       </c>
       <c r="M6" t="n">
-        <v>341829.9042875335</v>
+        <v>337406.6993744368</v>
       </c>
       <c r="N6" t="n">
-        <v>369334.7409444299</v>
+        <v>364911.5360313334</v>
       </c>
       <c r="O6" t="n">
-        <v>369334.7409444299</v>
+        <v>364911.5360313334</v>
       </c>
       <c r="P6" t="n">
-        <v>369334.7409444298</v>
+        <v>364911.5360313332</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988861</v>
       </c>
       <c r="G3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988861</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988861</v>
       </c>
       <c r="I3" t="n">
         <v>285.4554322205456</v>
@@ -26776,7 +26776,7 @@
         <v>285.4554322205456</v>
       </c>
       <c r="O3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205456</v>
       </c>
       <c r="P3" t="n">
         <v>285.4554322205455</v>
@@ -26798,16 +26798,16 @@
         <v>525.3032012649904</v>
       </c>
       <c r="E4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="F4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="G4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="H4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="I4" t="n">
         <v>856.9085668483224</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501921</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>221.2345984331397</v>
+        <v>221.2345984331398</v>
       </c>
       <c r="J4" t="n">
         <v>525.3032012649903</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501921</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501921</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>35.36003435919119</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.875043510295825</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>12.72932909182344</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>116.7927962080468</v>
       </c>
     </row>
     <row r="4">
@@ -27554,13 +27554,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>36.8511577419327</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>19.43647763297656</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27593,7 +27593,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -27605,7 +27605,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>61.90479784838328</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>220.5732786255667</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9.940324384400441</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>24.68645909039964</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27782,7 +27782,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27797,7 +27797,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27833,13 +27833,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>218.29601321976</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>131.9616841860139</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>192.1608121810131</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>60.97626761167423</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27937,16 +27937,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>47.95658355651838</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>38.50770056809654</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28013,19 +28013,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>110.9087308602875</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28067,10 +28067,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>15.70763571947964</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H11" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I11" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K11" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N11" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T11" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,31 +31834,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N12" t="n">
-        <v>53.1511087530936</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806977</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>26.08660970927058</v>
@@ -31867,13 +31867,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S12" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J13" t="n">
         <v>12.11303823549335</v>
@@ -31925,34 +31925,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N13" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859841</v>
       </c>
       <c r="H14" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I14" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285791</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630632</v>
       </c>
       <c r="K14" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850203</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757799</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712768</v>
+        <v>67.0672663971276</v>
       </c>
       <c r="N14" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410141</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911389</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736616</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531184</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730072</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504371</v>
       </c>
       <c r="T14" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309396</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287872</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680623</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689865</v>
       </c>
       <c r="J15" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472701</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869704</v>
       </c>
       <c r="M15" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653929</v>
       </c>
       <c r="N15" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309354</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712753</v>
       </c>
       <c r="P15" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806972</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488022</v>
       </c>
       <c r="S15" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880453</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133736</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526726</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407827</v>
       </c>
       <c r="H16" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302813</v>
       </c>
       <c r="J16" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K16" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L16" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M16" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511015</v>
       </c>
       <c r="N16" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729452</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795556</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884367</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106169</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497251</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859841</v>
       </c>
       <c r="H17" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I17" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285791</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630632</v>
       </c>
       <c r="K17" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850203</v>
       </c>
       <c r="L17" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757799</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712767</v>
+        <v>67.0672663971276</v>
       </c>
       <c r="N17" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410141</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911389</v>
       </c>
       <c r="P17" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736616</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531184</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730072</v>
       </c>
       <c r="S17" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504371</v>
       </c>
       <c r="T17" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309396</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287872</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680623</v>
       </c>
       <c r="H18" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689865</v>
       </c>
       <c r="J18" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>32.99995566472698</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>44.37251283869704</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.78062956653929</v>
       </c>
       <c r="N18" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309354</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39.02414834806972</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.08660970927058</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488022</v>
       </c>
       <c r="S18" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880453</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133736</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526726</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407827</v>
       </c>
       <c r="H19" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302813</v>
       </c>
       <c r="J19" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K19" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L19" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M19" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511015</v>
       </c>
       <c r="N19" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729452</v>
       </c>
       <c r="O19" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795556</v>
       </c>
       <c r="S19" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884367</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106169</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497251</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859841</v>
       </c>
       <c r="H20" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290086</v>
       </c>
       <c r="I20" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285791</v>
       </c>
       <c r="J20" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630632</v>
       </c>
       <c r="K20" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850203</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757799</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712767</v>
+        <v>67.0672663971276</v>
       </c>
       <c r="N20" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410141</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911389</v>
       </c>
       <c r="P20" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736616</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531184</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730072</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504371</v>
       </c>
       <c r="T20" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309396</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287872</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680623</v>
       </c>
       <c r="H21" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365234</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689865</v>
       </c>
       <c r="J21" t="n">
-        <v>19.30771233326682</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869704</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.78062956653929</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>53.15110875309354</v>
       </c>
       <c r="O21" t="n">
-        <v>44.44768933946983</v>
+        <v>48.62288059712753</v>
       </c>
       <c r="P21" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806972</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927055</v>
       </c>
       <c r="R21" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488022</v>
       </c>
       <c r="S21" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880453</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133736</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526726</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407827</v>
       </c>
       <c r="H22" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448051</v>
       </c>
       <c r="I22" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302813</v>
       </c>
       <c r="J22" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549334</v>
       </c>
       <c r="K22" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922912</v>
       </c>
       <c r="L22" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891965</v>
       </c>
       <c r="M22" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511015</v>
       </c>
       <c r="N22" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729452</v>
       </c>
       <c r="O22" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267719</v>
       </c>
       <c r="P22" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492521</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146318</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795556</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884367</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106169</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497251</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,28 +32788,28 @@
         <v>21.13985983897437</v>
       </c>
       <c r="J24" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>99.14728913267761</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>133.3157657743218</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>155.5732105601973</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>146.0858569025277</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>117.2467793209256</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.37636697496943</v>
+        <v>17.1087416051713</v>
       </c>
       <c r="R24" t="n">
         <v>38.12176508032118</v>
@@ -33025,28 +33025,28 @@
         <v>21.13985983897437</v>
       </c>
       <c r="J27" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>133.3157657743218</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>115.4839025616399</v>
+        <v>122.2209899749206</v>
       </c>
       <c r="N27" t="n">
-        <v>159.6907705211899</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>146.0858569025277</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71310890453304</v>
+        <v>117.2467793209256</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.37636697496943</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>38.12176508032118</v>
@@ -33262,7 +33262,7 @@
         <v>21.13985983897437</v>
       </c>
       <c r="J30" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -33274,13 +33274,13 @@
         <v>155.5732105601973</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>98.42314515139174</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>146.0858569025277</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>117.2467793209256</v>
       </c>
       <c r="Q30" t="n">
         <v>78.37636697496943</v>
@@ -33499,22 +33499,22 @@
         <v>21.13985983897437</v>
       </c>
       <c r="J33" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>99.14728913267761</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>133.3157657743218</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>155.5732105601973</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>146.0858569025277</v>
       </c>
       <c r="P33" t="n">
         <v>117.2467793209256</v>
@@ -33736,7 +33736,7 @@
         <v>21.13985983897437</v>
       </c>
       <c r="J36" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>99.14728913267761</v>
@@ -33745,19 +33745,19 @@
         <v>133.3157657743218</v>
       </c>
       <c r="M36" t="n">
-        <v>155.5732105601973</v>
+        <v>80.34346864693623</v>
       </c>
       <c r="N36" t="n">
-        <v>159.6907705211899</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>146.0858569025277</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.37636697496943</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>38.12176508032118</v>
@@ -33973,13 +33973,13 @@
         <v>21.13985983897437</v>
       </c>
       <c r="J39" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>99.14728913267761</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>133.3157657743218</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>155.5732105601973</v>
@@ -33988,7 +33988,7 @@
         <v>159.6907705211899</v>
       </c>
       <c r="O39" t="n">
-        <v>146.0858569025277</v>
+        <v>84.81823153272944</v>
       </c>
       <c r="P39" t="n">
         <v>117.2467793209256</v>
@@ -34128,16 +34128,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I41" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J41" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K41" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L41" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M41" t="n">
         <v>201.5014117101341</v>
@@ -34149,22 +34149,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P41" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q41" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R41" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S41" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T41" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H42" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I42" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897437</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>99.14728913267759</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>133.3157657743218</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>155.5732105601973</v>
@@ -34225,25 +34225,25 @@
         <v>159.6907705211899</v>
       </c>
       <c r="O42" t="n">
-        <v>146.0858569025277</v>
+        <v>84.81823153272944</v>
       </c>
       <c r="P42" t="n">
         <v>117.2467793209256</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R42" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032118</v>
       </c>
       <c r="S42" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T42" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836616</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,43 +34280,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468854</v>
       </c>
       <c r="H43" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I43" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J43" t="n">
-        <v>36.39322780949479</v>
+        <v>36.3932278094948</v>
       </c>
       <c r="K43" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L43" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M43" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N43" t="n">
-        <v>78.77166050112206</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O43" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P43" t="n">
-        <v>62.25736180757599</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q43" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R43" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611177</v>
       </c>
       <c r="S43" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T43" t="n">
         <v>2.199410707273055</v>
@@ -34447,7 +34447,7 @@
         <v>21.13985983897436</v>
       </c>
       <c r="J45" t="n">
-        <v>58.00939118361106</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34456,16 +34456,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>33.44281091453456</v>
       </c>
       <c r="N45" t="n">
-        <v>7.659130346160509</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O45" t="n">
         <v>146.0858569025277</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>117.2467793209256</v>
       </c>
       <c r="Q45" t="n">
         <v>78.37636697496941</v>
@@ -34780,7 +34780,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>87.71916873984493</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
@@ -34795,10 +34795,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>345.8432101035195</v>
       </c>
       <c r="N6" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>436.8573833443823</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.799832419646698</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M11" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N11" t="n">
         <v>450.3053724474507</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
         <v>264.8085946144125</v>
@@ -35500,16 +35500,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>569.5810543320048</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>382.8480484128792</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>344.1715415558448</v>
+        <v>89.07158507920555</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P13" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35655,16 +35655,16 @@
         <v>411.674110750049</v>
       </c>
       <c r="M14" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N14" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605623</v>
       </c>
       <c r="P14" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q14" t="n">
         <v>136.6325338001977</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>17.42030366054508</v>
+        <v>142.0094217056625</v>
       </c>
       <c r="L15" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M15" t="n">
-        <v>541.7133098798994</v>
+        <v>541.7133098798993</v>
       </c>
       <c r="N15" t="n">
         <v>569.5810543320048</v>
@@ -35743,10 +35743,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P15" t="n">
-        <v>344.1715415558448</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L16" t="n">
         <v>127.0954261044343</v>
@@ -35822,7 +35822,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P16" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>411.674110750049</v>
       </c>
       <c r="M17" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N17" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605623</v>
       </c>
       <c r="P17" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q17" t="n">
         <v>136.6325338001977</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>231.8086389496855</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L18" t="n">
-        <v>369.5170153233491</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M18" t="n">
-        <v>489.93268031336</v>
+        <v>541.7133098798993</v>
       </c>
       <c r="N18" t="n">
         <v>569.5810543320048</v>
       </c>
       <c r="O18" t="n">
-        <v>396.1615664486372</v>
+        <v>321.9852741370145</v>
       </c>
       <c r="P18" t="n">
-        <v>274.5592292690677</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L19" t="n">
         <v>127.0954261044343</v>
@@ -36059,7 +36059,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P19" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>411.674110750049</v>
       </c>
       <c r="M20" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N20" t="n">
-        <v>450.3053724474507</v>
+        <v>450.3053724474506</v>
       </c>
       <c r="O20" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605623</v>
       </c>
       <c r="P20" t="n">
-        <v>285.3865533491372</v>
+        <v>285.3865533491371</v>
       </c>
       <c r="Q20" t="n">
         <v>136.6325338001977</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>17.42030366054549</v>
       </c>
       <c r="L21" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>541.7133098798993</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
-        <v>440.6092557881071</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P21" t="n">
-        <v>344.1715415558448</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371742</v>
       </c>
       <c r="L22" t="n">
         <v>127.0954261044343</v>
@@ -36296,7 +36296,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P22" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324621</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>330.9559280823631</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>502.8327810976709</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>411.2146126550489</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O24" t="n">
-        <v>396.1615664486372</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>176.4740242168826</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>118.8721654594759</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>502.8327810976709</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>612.1536702882806</v>
       </c>
       <c r="N27" t="n">
-        <v>676.1207161001012</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O27" t="n">
         <v>542.2474233511649</v>
       </c>
       <c r="P27" t="n">
-        <v>390.860502112308</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>229.9804156381767</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N30" t="n">
-        <v>516.4299455789112</v>
+        <v>614.8530907303029</v>
       </c>
       <c r="O30" t="n">
-        <v>396.1615664486372</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P30" t="n">
-        <v>305.147393207775</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>244.5090020539194</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N33" t="n">
-        <v>516.4299455789112</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O33" t="n">
-        <v>396.1615664486372</v>
+        <v>420.117023705502</v>
       </c>
       <c r="P33" t="n">
         <v>422.3941725287006</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L36" t="n">
         <v>502.8327810976709</v>
       </c>
       <c r="M36" t="n">
-        <v>645.5058908735573</v>
+        <v>570.2761489602963</v>
       </c>
       <c r="N36" t="n">
-        <v>676.1207161001012</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1354457913019</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P36" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.8721654594759</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>20.74033220317401</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>645.5058908735573</v>
@@ -37636,7 +37636,7 @@
         <v>676.1207161001012</v>
       </c>
       <c r="O39" t="n">
-        <v>341.3673003187169</v>
+        <v>480.9797979813667</v>
       </c>
       <c r="P39" t="n">
         <v>422.3941725287006</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>20.74033220317398</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N42" t="n">
-        <v>672.4891255020987</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O42" t="n">
-        <v>542.2474233511649</v>
+        <v>480.9797979813667</v>
       </c>
       <c r="P42" t="n">
         <v>422.3941725287006</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117113</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>395.482005934001</v>
       </c>
       <c r="Q44" t="n">
-        <v>219.3096336538061</v>
+        <v>219.3096336538062</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>489.93268031336</v>
+        <v>523.3754912278946</v>
       </c>
       <c r="N45" t="n">
-        <v>524.0890759250717</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O45" t="n">
         <v>542.2474233511649</v>
       </c>
       <c r="P45" t="n">
-        <v>305.147393207775</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
